--- a/ResultadoEleicoesDistritos/VISEU_TABUAÇO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_TABUAÇO.xlsx
@@ -597,64 +597,64 @@
         <v>1389</v>
       </c>
       <c r="H2" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J2" t="n">
         <v>559</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M2" t="n">
         <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="T2" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
